--- a/DB_Aguas_minerais.xlsx
+++ b/DB_Aguas_minerais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilceregato/Documents/GitHub/Cafe-agua/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77D4603-005E-A441-B6E0-6E3301E6F25D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A170D6-1CAC-5148-B43D-5EBD819725FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2980" yWindow="2160" windowWidth="28240" windowHeight="17240" xr2:uid="{83487ACB-FD50-A848-928F-BDD2E1CF93C0}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Marca/ Concessionária</t>
   </si>
@@ -107,6 +107,21 @@
   </si>
   <si>
     <t>Fazenda Riacho Doce - Quitandinha/ PR</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>José Gregório - Bauru/ SP</t>
+  </si>
+  <si>
+    <t>Ouro Fino</t>
+  </si>
+  <si>
+    <t>Ouro Fino - Campo Largo / PR</t>
+  </si>
+  <si>
+    <t>Silício Total (mg/L)</t>
   </si>
 </sst>
 </file>
@@ -148,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,7 +174,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,18 +488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E25FF23-4FA1-2C4A-9907-B174E59E5B42}">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -498,9 +512,10 @@
     <col min="15" max="16" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.5" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,7 +525,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -555,8 +570,11 @@
       <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -566,7 +584,7 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>6.49</v>
       </c>
       <c r="E2" s="1">
@@ -611,8 +629,11 @@
       <c r="R2" s="1">
         <v>0.37</v>
       </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -622,7 +643,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>7.22</v>
       </c>
       <c r="E3" s="1">
@@ -667,8 +688,11 @@
       <c r="R3" s="1">
         <v>0</v>
       </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -678,7 +702,7 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6.55</v>
       </c>
       <c r="E4" s="1">
@@ -722,6 +746,127 @@
       </c>
       <c r="R4" s="1">
         <v>0.44</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45751</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="E5" s="1">
+        <v>31.74</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.74</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="K5" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="3">
+        <v>45751</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>174.89</v>
+      </c>
+      <c r="F6" s="1">
+        <v>29.141999999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>17.472999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.997</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>5.6180000000000003</v>
       </c>
     </row>
   </sheetData>
